--- a/app/excel/A_CLOZE_B_GIVEN.xlsx
+++ b/app/excel/A_CLOZE_B_GIVEN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="96">
   <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[f]How are[-f] your parents?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are they [f]playing[-f] football?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Come with [f]me[-f], we'll have fun.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fun? The two of us?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blah blah blah...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A_font</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,35 +82,323 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[h]How are[-h] your parents?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are they [h]playing[-h] football?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Come with [h]me[-h], we'll have fun.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High level transformations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>English</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2</t>
+    <t>Sumerian stuff...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lu2 cu sug4-ga-ka kadra-ni ur5-ce3 nir mu-un-jal2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumerianTranscription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu2 nij2 nu-tuku mac2 gur-ra-na gaba-na i-im-tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jizzal he2-bi2-ak cag4-ce3 gid2-i-de3 sag9-ge-zu mu-da-an-jal2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dub-sar umun2 ak sun5-na-bi ugula-a-ni mu-un-na-ni-ib-gi4-gi4 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu2 nu-zu nam-mu-ni-ib-ku4-ku4 1(DIC)-am3 ga-ra-ni-ib-gi4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ur-gir15 tur-gin7 igi mu-e-bad-bad nam-lu2-ulu3 mu-e-ak </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a-na-ac-am3 lu2 ja2-la dag-ga-gin7 jic ma-ab-hur-hur-re-en </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lu2 inim-zu jic ba-ni-in-tuku-a cu am3-ma-kar2-kar2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ud-bi-ta lu2-tur he2-me-en-na i3-ne-ec2 saj-zu il2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eme-gi-ce3 gu2-zu na-ab-cub-be2-en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amicitiae nostrae memoriam spero sempiternam fore.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarlyRomanCursive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vestis virum reddit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aequam memento rebus in arduis servare mentem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vir sapit qui pauca loquitur.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad praesens ova cras pullis sunt meliora.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amare et sapere vix deo conceditur.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitam regit fortuna, non sapientia.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semper inops quicumque cupit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A fronte praceipitium a tergo lupi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dulce bellum inexpertis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dum excusare credis, accusas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si vis amari, ama.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choose the right form.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise your [f]head[-f] now, you who were formerly a [f]youth[-f]. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don’t neglect [f]the Sumerian language[-f]!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you believe you are [f]excusing[-f] yourself, you are accusing yourself.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you wish to be [f]loved[-f], [f]love[-f].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>War is [f]sweet[-f] for those who haven't experienced it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A [f]precipice[-f] in front, [f]wolves[-f] behind.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whoever [f]desires[-f] is always poor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fortune, [f]not wisdom[-f], rules lives.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Even a god finds it hard to [f]love and be wise[-f] at the same time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggs today are better than [f]chickens[-f] tomorrow.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That man is wise who [f]talks little[-f].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remember when life’s path is [f]steep[-f] to keep your mind even.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The [f]clothes[-f] make the man.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I hope that the [f]memory of our friendship[-f] will be everlasting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anyone hearing your words would feel [f]insulted[-f]!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">But why do you go on outlining [f]rules[-f] for me as if I were a shirker?  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You [f]opened my eyes[-f] like a puppy's and you made me into a human being.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not make me out to be an [f]ignoramus[-f] -- I will answer you once and for all!  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The [f]learned scribe[-f] humbly answered his supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You should pay attention -- [f]taking it to heart[-f] will be to your benefit!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Even a [f]poor man[-f] clutches a kid to his chest as he kneels.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An [f]empty-handed man's gifts[-f] are respected as such.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever Philip passed the [f]hairdresser's[-f] he thought of his wife.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The doctors [f]say he will be dead in six months[-f].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As time passed, he [f]became[-f] more and more nervous.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I would do [f]anything[-f] for you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f]You stole the jewels![-f] the inspector said to him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nobody knows [f]much[-f] about the scandal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surely, [f]you haven't forgotten already[-f]!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He remembered and [f]so did she[-f].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is it essential [f]to meet[-f] your aunt at the station?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is this the only way to [f]reach the city center[-f]?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm sorry now that I [f]asked her[-f] to stay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now I wish I had not asked her to stay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isn't there any other way to reach the city center?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Does it matter to meet your aunt at the station?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He didn't forget and nor did she.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't have forgotten!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Little is known about the scandal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The inspeactor accused him of having stolen the jewels.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There's nothing I wouldn't do for you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The longer he lived, the more nervous he became.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He has been given six months of life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philip never passed the hairdresser's without thinking of his wife.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +426,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -158,11 +471,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -470,15 +789,11 @@
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="6.25" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="36.5" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
-    <col min="9" max="9" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="6.25" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="12" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="9" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -492,34 +807,34 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -527,34 +842,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -562,28 +877,28 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -591,28 +906,1036 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="M4" t="s">
-        <v>12</v>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
